--- a/mappings/kegg_wikipathways.xlsx
+++ b/mappings/kegg_wikipathways.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieldomingo/PycharmProjects/compath_curation/curation/mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieldomingo/PycharmProjects/curation/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1963,13 +1963,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="34" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="80.33203125" customWidth="1"/>
+    <col min="2" max="2" width="110.33203125" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
   </cols>
   <sheetData>

--- a/mappings/kegg_wikipathways.xlsx
+++ b/mappings/kegg_wikipathways.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieldomingo/PycharmProjects/curation/mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarinllao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="5860" yWindow="3700" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1963,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1974,7 +1977,7 @@
     <col min="3" max="3" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +2011,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2088,7 +2091,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2097,7 +2100,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -2166,7 +2169,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="280" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -2264,7 +2267,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -2337,7 +2340,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
@@ -2406,7 +2409,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
@@ -2445,7 +2448,7 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>88</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>99</v>
       </c>
@@ -2536,7 +2539,7 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>106</v>
       </c>
@@ -2595,7 +2598,7 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>118</v>
       </c>
@@ -2675,7 +2678,7 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>133</v>
       </c>
@@ -2698,7 +2701,7 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>137</v>
       </c>
@@ -2707,7 +2710,7 @@
       </c>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>139</v>
       </c>
@@ -2737,7 +2740,7 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>144</v>
       </c>
@@ -2799,7 +2802,7 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>155</v>
       </c>
@@ -2854,7 +2857,7 @@
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>165</v>
       </c>
@@ -2895,7 +2898,7 @@
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>173</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>181</v>
       </c>
@@ -3037,7 +3040,7 @@
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>199</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>211</v>
       </c>
@@ -3138,7 +3141,7 @@
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>217</v>
       </c>
@@ -3301,7 +3304,7 @@
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>244</v>
       </c>
@@ -3384,7 +3387,7 @@
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>257</v>
       </c>
@@ -3508,7 +3511,7 @@
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>279</v>
       </c>
@@ -3524,7 +3527,7 @@
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>282</v>
       </c>
@@ -3595,7 +3598,7 @@
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>295</v>
       </c>
@@ -3604,7 +3607,7 @@
       </c>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>297</v>
       </c>
@@ -3613,7 +3616,7 @@
       </c>
       <c r="C208" s="2"/>
     </row>
-    <row r="209" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>299</v>
       </c>
@@ -3622,7 +3625,7 @@
       </c>
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>301</v>
       </c>
@@ -3654,7 +3657,7 @@
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>307</v>
       </c>
@@ -3663,7 +3666,7 @@
       </c>
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>309</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>315</v>
       </c>
@@ -3805,7 +3808,7 @@
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>335</v>
       </c>
@@ -3821,7 +3824,7 @@
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>338</v>
       </c>
@@ -3844,7 +3847,7 @@
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>342</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>352</v>
       </c>
@@ -3915,7 +3918,7 @@
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>355</v>
       </c>
@@ -3961,7 +3964,7 @@
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>363</v>
       </c>
@@ -4080,7 +4083,7 @@
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
         <v>384</v>
       </c>
@@ -4121,7 +4124,7 @@
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
         <v>392</v>
       </c>
@@ -4164,7 +4167,7 @@
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
         <v>401</v>
       </c>
@@ -4198,7 +4201,7 @@
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
         <v>408</v>
       </c>
@@ -4207,7 +4210,7 @@
       </c>
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="1:3" ht="238" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>410</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
         <v>414</v>
       </c>
@@ -4313,7 +4316,7 @@
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
         <v>427</v>
       </c>
@@ -4329,7 +4332,7 @@
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="1:3" ht="350" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
         <v>430</v>
       </c>
@@ -4352,7 +4355,7 @@
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>434</v>
       </c>
@@ -4375,7 +4378,7 @@
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
         <v>438</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
         <v>460</v>
       </c>
@@ -4537,7 +4540,7 @@
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
         <v>469</v>
       </c>
@@ -4557,6 +4560,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/mappings/kegg_wikipathways.xlsx
+++ b/mappings/kegg_wikipathways.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,399 +20,396 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
-  <si>
-    <t xml:space="preserve">KEGG References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equivalentTo Mappings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isPartOf Mappings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Oxocarboxylic acid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Oxocarboxylic acid metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC transporters - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGE-RAGE signaling pathway in diabetic complications - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPK signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPK signaling pathway - Homo sapiens (human) equivalentTo AMP-activated Protein Kinase (AMPK) Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute myeloid leukemia - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adherens junction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipocytokine signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptin and adiponectin isPartOf Adipocytokine signaling pathway - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrenergic signaling in cardiomyocytes - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African trypanosomiasis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alanine, aspartate and glutamate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alanine, aspartate and glutamate metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+  <si>
+    <t>KEGG References</t>
+  </si>
+  <si>
+    <t>equivalentTo Mappings</t>
+  </si>
+  <si>
+    <t>isPartOf Mappings</t>
+  </si>
+  <si>
+    <t>2-Oxocarboxylic acid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>2-Oxocarboxylic acid metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
+  </si>
+  <si>
+    <t>ABC transporters - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>AGE-RAGE signaling pathway in diabetic complications - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>AMPK signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>AMPK signaling pathway - Homo sapiens (human) equivalentTo AMP-activated Protein Kinase (AMPK) Signaling</t>
+  </si>
+  <si>
+    <t>Acute myeloid leukemia - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Adherens junction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Adipocytokine signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Leptin and adiponectin isPartOf Adipocytokine signaling pathway - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Adrenergic signaling in cardiomyocytes - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>African trypanosomiasis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
 Alanine and aspartate metabolism isPartOf Alanine, aspartate and glutamate metabolism - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Alcoholism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcoholism - Homo sapiens (human)* isPartOf Common Pathways Underlying Drug Addiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aldosterone synthesis and secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aldosterone synthesis and secretion - Homo sapiens (human)* isPartOf Glucocorticoid and Mineralcorticoid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aldosterone-regulated sodium reabsorption - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allograft rejection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allograft rejection - Homo sapiens (human) equivalentTo Allograft Rejection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alzheimer's disease - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alzheimer's disease - Homo sapiens (human) equivalentTo Alzheimers Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amino sugar and nucleotide sugar metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aminoacyl-tRNA biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amoebiasis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphetamine addiction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphetamine addiction - Homo sapiens (human)* isPartOf Common Pathways Underlying Drug Addiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amyotrophic lateral sclerosis (ALS) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amyotrophic lateral sclerosis (ALS) - Homo sapiens (human) equivalentTo Amyotrophic lateral sclerosis (ALS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antifolate resistance - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigen processing and presentation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apelin signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis - Homo sapiens (human) equivalentTo Apoptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis Modulation by HSP70 isPartOf Apoptosis - Homo sapiens (human)*
+    <t>Alcoholism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Alcoholism - Homo sapiens (human)* isPartOf Common Pathways Underlying Drug Addiction</t>
+  </si>
+  <si>
+    <t>Aldosterone synthesis and secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Aldosterone synthesis and secretion - Homo sapiens (human)* isPartOf Glucocorticoid and Mineralcorticoid Metabolism</t>
+  </si>
+  <si>
+    <t>Aldosterone-regulated sodium reabsorption - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Allograft rejection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Allograft rejection - Homo sapiens (human) equivalentTo Allograft Rejection</t>
+  </si>
+  <si>
+    <t>Alzheimer's disease - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Alzheimer's disease - Homo sapiens (human) equivalentTo Alzheimers Disease</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Aminoacyl-tRNA biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Amoebiasis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Amphetamine addiction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Amphetamine addiction - Homo sapiens (human)* isPartOf Common Pathways Underlying Drug Addiction</t>
+  </si>
+  <si>
+    <t>Amyotrophic lateral sclerosis (ALS) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Amyotrophic lateral sclerosis (ALS) - Homo sapiens (human) equivalentTo Amyotrophic lateral sclerosis (ALS)</t>
+  </si>
+  <si>
+    <t>Antifolate resistance - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Antigen processing and presentation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Apelin signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Apoptosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Apoptosis - Homo sapiens (human) equivalentTo Apoptosis</t>
+  </si>
+  <si>
+    <t>Apoptosis Modulation by HSP70 isPartOf Apoptosis - Homo sapiens (human)*
 Nanomaterial induced apoptosis isPartOf Apoptosis - Homo sapiens (human)*
 Apoptosis Modulation and Signaling isPartOf Apoptosis - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Apoptosis - multiple species - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis - multiple species - Homo sapiens (human) equivalentTo Apoptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanomaterial induced apoptosis isPartOf Apoptosis - multiple species - Homo sapiens (human)*
+    <t>Apoptosis - multiple species - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Nanomaterial induced apoptosis isPartOf Apoptosis - multiple species - Homo sapiens (human)*
 Apoptosis Modulation by HSP70 isPartOf Apoptosis - multiple species - Homo sapiens (human)*
 Apoptosis Modulation and Signaling isPartOf Apoptosis - multiple species - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Arachidonic acid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arginine and proline metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arginine and proline metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
+    <t>Arachidonic acid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
 Arginine and proline metabolism - Homo sapiens (human)* isPartOf Urea cycle and metabolism of amino groups</t>
   </si>
   <si>
-    <t xml:space="preserve">Arginine biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arginine biosynthesis - Homo sapiens (human)* isPartOf Amino Acid metabolism
+    <t>Arginine biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Arginine biosynthesis - Homo sapiens (human)* isPartOf Amino Acid metabolism
 Arginine biosynthesis - Homo sapiens (human)* isPartOf Urea cycle and metabolism of amino groups</t>
   </si>
   <si>
-    <t xml:space="preserve">Arrhythmogenic right ventricular cardiomyopathy (ARVC) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrhythmogenic right ventricular cardiomyopathy (ARVC) - Homo sapiens (human) equivalentTo Arrhythmogenic Right Ventricular Cardiomyopathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascorbate and aldarate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asthma - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoimmune thyroid disease - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autophagy - animal - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autophagy - other - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axon guidance - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell receptor signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell receptor signaling pathway - Homo sapiens (human) equivalentTo B Cell Receptor Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacterial invasion of epithelial cells - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basal cell carcinoma - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basal transcription factors - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eukaryotic Transcription Initiation isPartOf Basal transcription factors - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base excision repair - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bile secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug Induction of Bile Acid Pathway isPartOf Bile secretion - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biosynthesis of amino acids - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alanine and aspartate metabolism isPartOf Biosynthesis of amino acids - Homo sapiens (human)*
+    <t>Arrhythmogenic right ventricular cardiomyopathy (ARVC) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Arrhythmogenic right ventricular cardiomyopathy (ARVC) - Homo sapiens (human) equivalentTo Arrhythmogenic Right Ventricular Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Ascorbate and aldarate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Asthma - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Autoimmune thyroid disease - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Autophagy - animal - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Autophagy - other - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Axon guidance - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>B cell receptor signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>B cell receptor signaling pathway - Homo sapiens (human) equivalentTo B Cell Receptor Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Bacterial invasion of epithelial cells - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Basal cell carcinoma - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Basal transcription factors - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Eukaryotic Transcription Initiation isPartOf Basal transcription factors - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Base excision repair - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Bile secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Drug Induction of Bile Acid Pathway isPartOf Bile secretion - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Biosynthesis of amino acids - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Alanine and aspartate metabolism isPartOf Biosynthesis of amino acids - Homo sapiens (human)*
 Urea cycle and metabolism of amino groups isPartOf Biosynthesis of amino acids - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Biosynthesis of unsaturated fatty acids - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty Acid Biosynthesis isPartOf Biosynthesis of unsaturated fatty acids - Homo sapiens (human)*
+    <t>Biosynthesis of unsaturated fatty acids - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fatty Acid Biosynthesis isPartOf Biosynthesis of unsaturated fatty acids - Homo sapiens (human)*
 Biosynthesis of unsaturated fatty acids - Homo sapiens (human)* isPartOf Fatty Acid Biosynthesis</t>
   </si>
   <si>
-    <t xml:space="preserve">Biotin metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bladder cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bladder cancer - Homo sapiens (human) equivalentTo Bladder Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butanoate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caffeine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caffeine metabolism - Homo sapiens (human)* isPartOf Caffeine and Theobromine metabolism
+    <t>Biotin metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Bladder cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Bladder cancer - Homo sapiens (human) equivalentTo Bladder Cancer</t>
+  </si>
+  <si>
+    <t>Breast cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Caffeine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Caffeine metabolism - Homo sapiens (human)* isPartOf Caffeine and Theobromine metabolism
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Calcium signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbohydrate digestion and absorption - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cori Cycle isPartOf Carbon metabolism - Homo sapiens (human)*
+    <t>Calcium signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Carbohydrate digestion and absorption - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Carbon metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cori Cycle isPartOf Carbon metabolism - Homo sapiens (human)*
 Pentose Phosphate Pathway isPartOf Carbon metabolism - Homo sapiens (human)*
 Glycolysis and Gluconeogenesis isPartOf Carbon metabolism - Homo sapiens (human)*
 TCA Cycle isPartOf Carbon metabolism - Homo sapiens (human)*
 One Carbon Metabolism isPartOf Carbon metabolism - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardiac muscle contraction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell adhesion molecules (CAMs) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell cycle - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell cycle - Homo sapiens (human) equivalentTo Cell Cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1 to S cell cycle control isPartOf Cell cycle - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cellular senescence - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central carbon metabolism in cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagas disease (American trypanosomiasis) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical carcinogenesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemokine signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemokine signaling pathway - Homo sapiens (human) equivalentTo Chemokine signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cholesterol metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cholesterol Biosynthesis isPartOf Cholesterol metabolism - Homo sapiens (human)*
+    <t>Cardiac muscle contraction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cell adhesion molecules (CAMs) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cell cycle - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cell cycle - Homo sapiens (human) equivalentTo Cell Cycle</t>
+  </si>
+  <si>
+    <t>G1 to S cell cycle control isPartOf Cell cycle - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Cellular senescence - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Central carbon metabolism in cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Chagas disease (American trypanosomiasis) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Chemical carcinogenesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Chemokine signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Chemokine signaling pathway - Homo sapiens (human) equivalentTo Chemokine signaling pathway</t>
+  </si>
+  <si>
+    <t>Cholesterol metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cholesterol Biosynthesis isPartOf Cholesterol metabolism - Homo sapiens (human)*
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Choline metabolism in cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cholinergic synapse - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic myeloid leukemia - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imatinib and Chronic Myeloid Leukemia isPartOf Chronic myeloid leukemia - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circadian entrainment - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circadian rhythm - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circadian rythm related genes isPartOf Circadian rhythm - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrate cycle (TCA cycle) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrate cycle (TCA cycle) - Homo sapiens (human) equivalentTo TCA Cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCA Cycle and Deficiency of Pyruvate Dehydrogenase complex (PDHc) isPartOf Citrate cycle (TCA cycle) - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocaine addiction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocaine addiction - Homo sapiens (human)* isPartOf Common Pathways Underlying Drug Addiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collecting duct acid secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorectal cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complement and coagulation cascades - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complement and coagulation cascades - Homo sapiens (human) equivalentTo Complement and Coagulation Cascades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complement Activation isPartOf Complement and coagulation cascades - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortisol synthesis and secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortisol synthesis and secretion - Homo sapiens (human)* isPartOf Glucocorticoid and Mineralcorticoid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cysteine and methionine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cysteine and methionine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
+    <t>Choline metabolism in cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cholinergic synapse - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Chronic myeloid leukemia - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Imatinib and Chronic Myeloid Leukemia isPartOf Chronic myeloid leukemia - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Circadian entrainment - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Circadian rhythm - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Circadian rythm related genes isPartOf Circadian rhythm - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Citrate cycle (TCA cycle) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Citrate cycle (TCA cycle) - Homo sapiens (human) equivalentTo TCA Cycle</t>
+  </si>
+  <si>
+    <t>TCA Cycle and Deficiency of Pyruvate Dehydrogenase complex (PDHc) isPartOf Citrate cycle (TCA cycle) - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Cocaine addiction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cocaine addiction - Homo sapiens (human)* isPartOf Common Pathways Underlying Drug Addiction</t>
+  </si>
+  <si>
+    <t>Collecting duct acid secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Colorectal cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Complement and coagulation cascades - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Complement and coagulation cascades - Homo sapiens (human) equivalentTo Complement and Coagulation Cascades</t>
+  </si>
+  <si>
+    <t>Complement Activation isPartOf Complement and coagulation cascades - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Cortisol synthesis and secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cortisol synthesis and secretion - Homo sapiens (human)* isPartOf Glucocorticoid and Mineralcorticoid Metabolism</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
 Methionine De Novo and Salvage Pathway isPartOf Cysteine and methionine metabolism - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytokine-cytokine receptor interaction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytokine-cytokine receptor interaction - Homo sapiens (human)* isPartOf Cytokines and Inflammatory Response
+    <t>Cytokine-cytokine receptor interaction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cytokine-cytokine receptor interaction - Homo sapiens (human)* isPartOf Cytokines and Inflammatory Response
 Cytokine-cytokine receptor interaction - Homo sapiens (human)* isPartOf Inflammatory Response Pathway</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytosolic DNA-sensing pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Arginine and D-ornithine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Glutamine and D-glutamate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA replication - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA replication - Homo sapiens (human) equivalentTo DNA Replication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dilated cardiomyopathy (DCM) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dopaminergic synapse - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicotine Activity on Dopaminergic Neurons isPartOf Dopaminergic synapse - Homo sapiens (human)*
+    <t>Cytosolic DNA-sensing pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>D-Arginine and D-ornithine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>D-Glutamine and D-glutamate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>DNA replication - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>DNA replication - Homo sapiens (human) equivalentTo DNA Replication</t>
+  </si>
+  <si>
+    <t>Dilated cardiomyopathy (DCM) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Dopaminergic synapse - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Nicotine Activity on Dopaminergic Neurons isPartOf Dopaminergic synapse - Homo sapiens (human)*
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Drug metabolism - cytochrome P450 - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lidocaine metabolism isPartOf Drug metabolism - cytochrome P450 - Homo sapiens (human)*
+    <t>Drug metabolism - cytochrome P450 - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Lidocaine metabolism isPartOf Drug metabolism - cytochrome P450 - Homo sapiens (human)*
 Codeine and Morphine Metabolism isPartOf Drug metabolism - cytochrome P450 - Homo sapiens (human)*
 Valproic acid pathway isPartOf Drug metabolism - cytochrome P450 - Homo sapiens (human)*
 Nicotine Metabolism isPartOf Drug metabolism - cytochrome P450 - Homo sapiens (human)*
@@ -421,10 +418,10 @@
 Diclofenac Metabolic Pathway isPartOf Drug metabolism - cytochrome P450 - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Drug metabolism - other enzymes - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codeine and Morphine Metabolism isPartOf Drug metabolism - other enzymes - Homo sapiens (human)*
+    <t>Drug metabolism - other enzymes - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Codeine and Morphine Metabolism isPartOf Drug metabolism - other enzymes - Homo sapiens (human)*
 Caffeine and Theobromine metabolism isPartOf Drug metabolism - other enzymes - Homo sapiens (human)*
 Glucuronidation isPartOf Drug metabolism - other enzymes - Homo sapiens (human)*
 Arylamine metabolism isPartOf Drug metabolism - other enzymes - Homo sapiens (human)*
@@ -434,407 +431,407 @@
 Heroin metabolism isPartOf Drug metabolism - other enzymes - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">ECM-receptor interaction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECM-receptor interaction - Homo sapiens (human)* isPartOf Focal Adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGFR tyrosine kinase inhibitor resistance - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endocrine and other factor-regulated calcium reabsorption - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endocrine resistance - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endocytosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endometrial cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endometrial cancer - Homo sapiens (human) equivalentTo Endometrial cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epithelial cell signaling in Helicobacter pylori infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epstein-Barr virus infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ErbB signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ErbB signaling pathway - Homo sapiens (human) equivalentTo ErbB Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrogen signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrogen signaling pathway - Homo sapiens (human) equivalentTo Estrogen signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether lipid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanconi anemia pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fat digestion and absorption - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty acid biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty acid biosynthesis - Homo sapiens (human) equivalentTo Fatty Acid Biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty acid degradation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty Acid Omega Oxidation isPartOf Fatty acid degradation - Homo sapiens (human)*
+    <t>ECM-receptor interaction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>ECM-receptor interaction - Homo sapiens (human)* isPartOf Focal Adhesion</t>
+  </si>
+  <si>
+    <t>EGFR tyrosine kinase inhibitor resistance - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Endocrine and other factor-regulated calcium reabsorption - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Endocrine resistance - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Endocytosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Endometrial cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Endometrial cancer - Homo sapiens (human) equivalentTo Endometrial cancer</t>
+  </si>
+  <si>
+    <t>Epithelial cell signaling in Helicobacter pylori infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Epstein-Barr virus infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>ErbB signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>ErbB signaling pathway - Homo sapiens (human) equivalentTo ErbB Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Estrogen signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Estrogen signaling pathway - Homo sapiens (human) equivalentTo Estrogen signaling pathway</t>
+  </si>
+  <si>
+    <t>Ether lipid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fanconi anemia pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fat digestion and absorption - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis - Homo sapiens (human) equivalentTo Fatty Acid Biosynthesis</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fatty Acid Omega Oxidation isPartOf Fatty acid degradation - Homo sapiens (human)*
 Peroxisomal beta-oxidation of tetracosanoyl-CoA isPartOf Fatty acid degradation - Homo sapiens (human)*
 Mitochondrial LC-Fatty Acid Beta-Oxidation isPartOf Fatty acid degradation - Homo sapiens (human)*
 Fatty Acid Beta Oxidation isPartOf Fatty acid degradation - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatty acid elongation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatty acid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peroxisomal beta-oxidation of tetracosanoyl-CoA isPartOf Fatty acid metabolism - Homo sapiens (human)*
+    <t>Fatty acid elongation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Peroxisomal beta-oxidation of tetracosanoyl-CoA isPartOf Fatty acid metabolism - Homo sapiens (human)*
 Mitochondrial LC-Fatty Acid Beta-Oxidation isPartOf Fatty acid metabolism - Homo sapiens (human)*
 Fatty Acid Beta Oxidation isPartOf Fatty acid metabolism - Homo sapiens (human)*
 Fatty Acid Biosynthesis isPartOf Fatty acid metabolism - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Fc epsilon RI signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fc gamma R-mediated phagocytosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferroptosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluid shear stress and atherosclerosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focal adhesion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focal adhesion - Homo sapiens (human) equivalentTo Focal Adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folate biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases isPartOf Folate biosynthesis - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoxO signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fructose and mannose metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABAergic synapse - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABAergic synapse - Homo sapiens (human)* isPartOf GABA receptor Signaling
+    <t>Fc epsilon RI signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fc gamma R-mediated phagocytosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Ferroptosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fluid shear stress and atherosclerosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Focal adhesion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Focal adhesion - Homo sapiens (human) equivalentTo Focal Adhesion</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Biosynthesis and regeneration of tetrahydrobiopterin (BH4) and catabolism of phenylalanine, including diseases isPartOf Folate biosynthesis - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>FoxO signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Fructose and mannose metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>GABAergic synapse - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>GABAergic synapse - Homo sapiens (human)* isPartOf GABA receptor Signaling
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Galactose metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gap junction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastric acid secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastric acid secretion - Homo sapiens (human) equivalentTo Secretion of Hydrochloric Acid in Parietal Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastric cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastric Cancer Network 2 isPartOf Gastric cancer - Homo sapiens (human)*
+    <t>Galactose metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Gap junction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Gastric acid secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Gastric acid secretion - Homo sapiens (human) equivalentTo Secretion of Hydrochloric Acid in Parietal Cells</t>
+  </si>
+  <si>
+    <t>Gastric cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Gastric Cancer Network 2 isPartOf Gastric cancer - Homo sapiens (human)*
 Gastric Cancer Network 1 isPartOf Gastric cancer - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Glioma - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucagon signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucagon signaling pathway - Homo sapiens (human)* isPartOf Glycolysis and Gluconeogenesis
+    <t>Glioma - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glucagon signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glucagon signaling pathway - Homo sapiens (human)* isPartOf Glycolysis and Gluconeogenesis
 Glucagon signaling pathway - Homo sapiens (human)* isPartOf Energy Metabolism
 Glucagon signaling pathway - Homo sapiens (human)* isPartOf Glycogen Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Glutamatergic synapse - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutathione metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutathione metabolism - Homo sapiens (human) equivalentTo Glutathione metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycerolipid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycerophospholipid Biosynthetic Pathway isPartOf Glycerolipid metabolism - Homo sapiens (human)*
+    <t>Glutamatergic synapse - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism - Homo sapiens (human) equivalentTo Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid Biosynthetic Pathway isPartOf Glycerolipid metabolism - Homo sapiens (human)*
 Degradation pathway of sphingolipids, including diseases isPartOf Glycerolipid metabolism - Homo sapiens (human)*
 Triacylglyceride Synthesis isPartOf Glycerolipid metabolism - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Glycerophospholipid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycerophospholipid Biosynthetic Pathway isPartOf Glycerophospholipid metabolism - Homo sapiens (human)*
+    <t>Glycerophospholipid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid Biosynthetic Pathway isPartOf Glycerophospholipid metabolism - Homo sapiens (human)*
 Triacylglyceride Synthesis isPartOf Glycerophospholipid metabolism - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Glycine, serine and threonine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycine, serine and threonine metabolism - Homo sapiens (human)* isPartOf Urea cycle and metabolism of amino groups
+    <t>Glycine, serine and threonine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism - Homo sapiens (human)* isPartOf Urea cycle and metabolism of amino groups
 Glycine, serine and threonine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Glycolysis / Gluconeogenesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycolysis / Gluconeogenesis - Homo sapiens (human) equivalentTo Glycolysis and Gluconeogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosaminoglycan biosynthesis - chondroitin sulfate / dermatan sulfate - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosaminoglycan biosynthesis - heparan sulfate / heparin - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosaminoglycan biosynthesis - keratan sulfate - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosaminoglycan degradation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosphingolipid biosynthesis - ganglio series - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosphingolipid biosynthesis - ganglio series - Homo sapiens (human)* isPartOf Ganglio Sphingolipid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosphingolipid biosynthesis - globo and isoglobo series - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosphingolipid biosynthesis - globo and isoglobo series - Homo sapiens (human)* isPartOf Globo Sphingolipid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosphingolipid biosynthesis - lacto and neolacto series - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycosylphosphatidylinositol (GPI)-anchor biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glyoxylate and dicarboxylate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GnRH signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graft-versus-host disease - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graft-versus-host disease - Homo sapiens (human)* isPartOf Allograft Rejection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIF-1 signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTLV-I infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedgehog signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedgehog signaling pathway - Homo sapiens (human) equivalentTo Hedgehog Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hematopoietic cell lineage - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis B - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis C - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatocellular carcinoma - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatocellular carcinoma - Homo sapiens (human)* isPartOf Hepatitis C and Hepatocellular Carcinoma
+    <t>Glycolysis / Gluconeogenesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycolysis / Gluconeogenesis - Homo sapiens (human) equivalentTo Glycolysis and Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Glycosaminoglycan biosynthesis - chondroitin sulfate / dermatan sulfate - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycosaminoglycan biosynthesis - heparan sulfate / heparin - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycosaminoglycan biosynthesis - keratan sulfate - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycosaminoglycan degradation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis - ganglio series - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis - ganglio series - Homo sapiens (human)* isPartOf Ganglio Sphingolipid Metabolism</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis - globo and isoglobo series - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis - globo and isoglobo series - Homo sapiens (human)* isPartOf Globo Sphingolipid Metabolism</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis - lacto and neolacto series - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glycosylphosphatidylinositol (GPI)-anchor biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>GnRH signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Graft-versus-host disease - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Graft-versus-host disease - Homo sapiens (human)* isPartOf Allograft Rejection</t>
+  </si>
+  <si>
+    <t>HIF-1 signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>HTLV-I infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Hedgehog signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Hedgehog signaling pathway - Homo sapiens (human) equivalentTo Hedgehog Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Hematopoietic cell lineage - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Hepatitis B - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Hepatitis C - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Hepatocellular carcinoma - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Hepatocellular carcinoma - Homo sapiens (human)* isPartOf Hepatitis C and Hepatocellular Carcinoma
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Herpes simplex infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippo signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippo signaling pathway - multiple species - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histidine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histidine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homologous recombination - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homologous recombination - Homo sapiens (human) equivalentTo Homologous recombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human papillomavirus infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huntington's disease - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERK Pathway in Huntington's Disease isPartOf Huntington's disease - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertrophic cardiomyopathy (HCM) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL-17 signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL-17 signaling pathway - Homo sapiens (human) equivalentTo IL17 signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammatory bowel disease (IBD) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammatory mediator regulation of TRP channels - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza A - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inositol phosphate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin resistance - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin resistance - Homo sapiens (human)* isPartOf Type II diabetes mellitus
+    <t>Herpes simplex infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Hippo signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Hippo signaling pathway - multiple species - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Histidine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Histidine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
+  </si>
+  <si>
+    <t>Homologous recombination - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Homologous recombination - Homo sapiens (human) equivalentTo Homologous recombination</t>
+  </si>
+  <si>
+    <t>Human papillomavirus infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Huntington's disease - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>ERK Pathway in Huntington's Disease isPartOf Huntington's disease - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Hypertrophic cardiomyopathy (HCM) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>IL-17 signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>IL-17 signaling pathway - Homo sapiens (human) equivalentTo IL17 signaling pathway</t>
+  </si>
+  <si>
+    <t>Inflammatory bowel disease (IBD) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Inflammatory mediator regulation of TRP channels - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Influenza A - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Inositol phosphate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Insulin resistance - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Insulin resistance - Homo sapiens (human)* isPartOf Type II diabetes mellitus
 Insulin resistance - Homo sapiens (human)* isPartOf Insulin signalling in human adipocytes (diabetic condition)</t>
   </si>
   <si>
-    <t xml:space="preserve">Insulin secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin signaling pathway - Homo sapiens (human)* isPartOf Insulin signalling in human adipocytes (normal condition)
+    <t>Insulin secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Insulin signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Insulin signaling pathway - Homo sapiens (human)* isPartOf Insulin signalling in human adipocytes (normal condition)
 Insulin signaling pathway - Homo sapiens (human)* isPartOf Glucose Homeostasis
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Intestinal immune network for IgA production - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jak-STAT signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaposi's sarcoma-associated herpesvirus infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legionellosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leishmaniasis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leukocyte transendothelial migration - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linoleic acid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipoic acid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipoic acid metabolism - Homo sapiens (human)* isPartOf Lipid Metabolism Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long-term depression - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long-term potentiation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longevity regulating pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longevity regulating pathway - multiple species - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lysine degradation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lysine degradation - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lysosome - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPK signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPK signaling pathway - Homo sapiens (human) equivalentTo MAPK Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p38 MAPK Signaling Pathway isPartOf MAPK signaling pathway - Homo sapiens (human) *
+    <t>Intestinal immune network for IgA production - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Jak-STAT signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Kaposi's sarcoma-associated herpesvirus infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Legionellosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Leishmaniasis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Leukocyte transendothelial migration - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Linoleic acid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Lipoic acid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Lipoic acid metabolism - Homo sapiens (human)* isPartOf Lipid Metabolism Pathway</t>
+  </si>
+  <si>
+    <t>Long-term depression - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Long-term potentiation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Longevity regulating pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Longevity regulating pathway - multiple species - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Lysine degradation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Lysine degradation - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
+  </si>
+  <si>
+    <t>Lysosome - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>MAPK signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>MAPK signaling pathway - Homo sapiens (human) equivalentTo MAPK Signaling Pathway</t>
+  </si>
+  <si>
+    <t>p38 MAPK Signaling Pathway isPartOf MAPK signaling pathway - Homo sapiens (human) *
 MAPK Cascade isPartOf MAPK signaling pathway - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Malaria - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mannose type O-glycan biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maturity onset diabetes of the young - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measles - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanogenesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolic pathways - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caffeine and Theobromine metabolism isPartOf Metabolic pathways - Homo sapiens (human)*
+    <t>Malaria - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Mannose type O-glycan biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Maturity onset diabetes of the young - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Measles - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Melanogenesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Melanoma - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Metabolic pathways - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Caffeine and Theobromine metabolism isPartOf Metabolic pathways - Homo sapiens (human)*
 NAD+ biosynthetic pathways isPartOf Metabolic pathways - Homo sapiens (human)*
 Lidocaine metabolism isPartOf Metabolic pathways - Homo sapiens (human)*
 Cori Cycle isPartOf Metabolic pathways - Homo sapiens (human)*
@@ -915,58 +912,58 @@
 Folate Metabolism isPartOf Metabolic pathways - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Metabolism of xenobiotics by cytochrome P450 - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroRNAs in cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mineral absorption - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mismatch repair - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mismatch repair - Homo sapiens (human) equivalentTo Mismatch repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitophagy - animal - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morphine addiction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morphine addiction - Homo sapiens (human)* isPartOf Common Pathways Underlying Drug Addiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mucin type O-glycan biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Glycan biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NF-kappa B signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOD-like receptor signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural killer cell mediated cytotoxicity - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necroptosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanoparticle triggered regulated necrosis isPartOf Necroptosis - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neomycin, kanamycin and gentamicin biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuroactive ligand-receptor interaction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPCRs, Class C Metabotropic glutamate, pheromone isPartOf Neuroactive ligand-receptor interaction - Homo sapiens (human)*
+    <t>Metabolism of xenobiotics by cytochrome P450 - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>MicroRNAs in cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Mineral absorption - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Mismatch repair - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Mismatch repair - Homo sapiens (human) equivalentTo Mismatch repair</t>
+  </si>
+  <si>
+    <t>Mitophagy - animal - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Morphine addiction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Morphine addiction - Homo sapiens (human)* isPartOf Common Pathways Underlying Drug Addiction</t>
+  </si>
+  <si>
+    <t>Mucin type O-glycan biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>N-Glycan biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>NF-kappa B signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>NOD-like receptor signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Natural killer cell mediated cytotoxicity - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Necroptosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Nanoparticle triggered regulated necrosis isPartOf Necroptosis - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Neomycin, kanamycin and gentamicin biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Neuroactive ligand-receptor interaction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>GPCRs, Class C Metabotropic glutamate, pheromone isPartOf Neuroactive ligand-receptor interaction - Homo sapiens (human)*
 GPCRs, Class B Secretin-like isPartOf Neuroactive ligand-receptor interaction - Homo sapiens (human)*
 Small Ligand GPCRs isPartOf Neuroactive ligand-receptor interaction - Homo sapiens (human)*
 Peptide GPCRs isPartOf Neuroactive ligand-receptor interaction - Homo sapiens (human)*
@@ -974,644 +971,644 @@
 GPCRs, Class A Rhodopsin-like isPartOf Neuroactive ligand-receptor interaction - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Neurotrophin signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicotinate and nicotinamide metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD Biosynthesis II (from tryptophan) isPartOf Nicotinate and nicotinamide metabolism - Homo sapiens (human)*
+    <t>Neurotrophin signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Nicotinate and nicotinamide metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>NAD Biosynthesis II (from tryptophan) isPartOf Nicotinate and nicotinamide metabolism - Homo sapiens (human)*
 Tryptophan catabolism leading to NAD+ production isPartOf Nicotinate and nicotinamide metabolism - Homo sapiens (human)*
 NAD+ metabolism isPartOf Nicotinate and nicotinamide metabolism - Homo sapiens (human)*
 Nicotine Metabolism isPartOf Nicotinate and nicotinamide metabolism - Homo sapiens (human)*
 NAD+ biosynthetic pathways isPartOf Nicotinate and nicotinamide metabolism - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicotine addiction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABA receptor Signaling isPartOf Nicotine addiction - Homo sapiens (human)*
+    <t>Nicotine addiction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>GABA receptor Signaling isPartOf Nicotine addiction - Homo sapiens (human)*
 Nicotine Activity on Dopaminergic Neurons isPartOf Nicotine addiction - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-alcoholic fatty liver disease (NAFLD) - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-homologous end-joining - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-homologous end-joining - Homo sapiens (human) equivalentTo Non-homologous end joining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-small cell lung cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notch signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notch signaling pathway - Homo sapiens (human) equivalentTo Notch Signaling Pathway
+    <t>Nitrogen metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Non-alcoholic fatty liver disease (NAFLD) - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Non-homologous end-joining - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Non-homologous end-joining - Homo sapiens (human) equivalentTo Non-homologous end joining</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Notch signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Notch signaling pathway - Homo sapiens (human) equivalentTo Notch Signaling Pathway
 Notch signaling pathway - Homo sapiens (human) equivalentTo Canonical  and Non-canonical Notch signaling</t>
   </si>
   <si>
-    <t xml:space="preserve">Nucleotide excision repair - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homologous recombination isPartOf Nucleotide excision repair - Homo sapiens (human)*
+    <t>Nucleotide excision repair - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Homologous recombination isPartOf Nucleotide excision repair - Homo sapiens (human)*
 Mismatch repair isPartOf Nucleotide excision repair - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Olfactory transduction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One carbon pool by folate - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One carbon pool by folate - Homo sapiens (human)* isPartOf One carbon metabolism and related pathways
+    <t>Olfactory transduction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>One carbon pool by folate - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>One carbon pool by folate - Homo sapiens (human)* isPartOf One carbon metabolism and related pathways
 One carbon pool by folate - Homo sapiens (human)* isPartOf One carbon donor
 One carbon pool by folate - Homo sapiens (human)* isPartOf One Carbon Metabolism
 One carbon pool by folate - Homo sapiens (human)* isPartOf Folate Metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">Oocyte meiosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoclast differentiation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANKL/RANK (Receptor activator of NFKB (ligand)) Signaling Pathway isPartOf Osteoclast differentiation - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other glycan degradation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other types of O-glycan biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian steroidogenesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxidative phosphorylation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxidative phosphorylation - Homo sapiens (human) equivalentTo Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxytocin signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxytocin signaling pathway - Homo sapiens (human) equivalentTo Oxytocin signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI3K-Akt signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI3K-Akt signaling pathway - Homo sapiens (human) equivalentTo PI3K-Akt Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPAR signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPAR signaling pathway - Homo sapiens (human) equivalentTo PPAR signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancreatic cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancreatic secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell-type Dependent Selectivity of CCK2R Signaling isPartOf Pancreatic secretion - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantothenate and CoA biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkinson's disease - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkinson's disease - Homo sapiens (human) equivalentTo Parkinsons Disease Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathogenic Escherichia coli infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathogenic Escherichia coli infection - Homo sapiens (human) equivalentTo Pathogenic Escherichia coli infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathways in cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrated Cancer Pathway isPartOf Pathways in cancer - Homo sapiens (human)*
+    <t>Oocyte meiosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Osteoclast differentiation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>RANKL/RANK (Receptor activator of NFKB (ligand)) Signaling Pathway isPartOf Osteoclast differentiation - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Other glycan degradation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Other types of O-glycan biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Ovarian steroidogenesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation - Homo sapiens (human) equivalentTo Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Oxytocin signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Oxytocin signaling pathway - Homo sapiens (human) equivalentTo Oxytocin signaling</t>
+  </si>
+  <si>
+    <t>PI3K-Akt signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>PI3K-Akt signaling pathway - Homo sapiens (human) equivalentTo PI3K-Akt Signaling Pathway</t>
+  </si>
+  <si>
+    <t>PPAR signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>PPAR signaling pathway - Homo sapiens (human) equivalentTo PPAR signaling pathway</t>
+  </si>
+  <si>
+    <t>Pancreatic cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Pancreatic secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cell-type Dependent Selectivity of CCK2R Signaling isPartOf Pancreatic secretion - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Parkinson's disease - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Parkinson's disease - Homo sapiens (human) equivalentTo Parkinsons Disease Pathway</t>
+  </si>
+  <si>
+    <t>Pathogenic Escherichia coli infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Pathogenic Escherichia coli infection - Homo sapiens (human) equivalentTo Pathogenic Escherichia coli infection</t>
+  </si>
+  <si>
+    <t>Pathways in cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Integrated Cancer Pathway isPartOf Pathways in cancer - Homo sapiens (human)*
 Bladder Cancer isPartOf Pathways in cancer - Homo sapiens (human)*
 Signaling Pathways in Glioblastoma isPartOf Pathways in cancer - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Pentose and glucuronate interconversions - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentose and glucuronate interconversions - Homo sapiens (human)* isPartOf Glucuronidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentose phosphate pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentose phosphate pathway - Homo sapiens (human) equivalentTo Pentose Phosphate Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentose phosphate pathway - Homo sapiens (human)* isPartOf Glycolysis and Gluconeogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peroxisome - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peroxisomal beta-oxidation of tetracosanoyl-CoA isPartOf Peroxisome - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertussis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phagosome - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenylalanine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenylalanine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
+    <t>Pentose and glucuronate interconversions - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions - Homo sapiens (human)* isPartOf Glucuronidation</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway - Homo sapiens (human) equivalentTo Pentose Phosphate Pathway</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway - Homo sapiens (human)* isPartOf Glycolysis and Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Peroxisome - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Peroxisomal beta-oxidation of tetracosanoyl-CoA isPartOf Peroxisome - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Pertussis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Phagosome - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
 Phenylalanine metabolism - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis</t>
   </si>
   <si>
-    <t xml:space="preserve">Phenylalanine, tyrosine and tryptophan biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenylalanine, tyrosine and tryptophan biosynthesis - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Phosphatidylinositol signaling system - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phospholipase D signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphonate and phosphinate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phototransduction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelet activation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platinum drug resistance - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porphyrin and chlorophyll metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary bile acid biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary immunodeficiency - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prion diseases - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prion diseases - Homo sapiens (human) equivalentTo Prion disease pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progesterone-mediated oocyte maturation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolactin signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolactin signaling pathway - Homo sapiens (human) equivalentTo Prolactin Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propanoate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prostate cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteasome - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteasome - Homo sapiens (human) equivalentTo Proteasome Degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkin-Ubiquitin Proteasomal System pathway isPartOf Proteasome - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein digestion and absorption - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein export - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein processing in endoplasmic reticulum - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteoglycans in cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proximal tubule bicarbonate reclamation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purine metabolism - Homo sapiens (human)* isPartOf Nucleotide Metabolism
+    <t>Phosphatidylinositol signaling system - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Phospholipase D signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Phosphonate and phosphinate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Phototransduction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Platelet activation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Platinum drug resistance - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Porphyrin and chlorophyll metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Primary bile acid biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Primary immunodeficiency - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Prion diseases - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Prion diseases - Homo sapiens (human) equivalentTo Prion disease pathway</t>
+  </si>
+  <si>
+    <t>Progesterone-mediated oocyte maturation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Prolactin signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Prolactin signaling pathway - Homo sapiens (human) equivalentTo Prolactin Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Prostate cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Proteasome - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Proteasome - Homo sapiens (human) equivalentTo Proteasome Degradation</t>
+  </si>
+  <si>
+    <t>Parkin-Ubiquitin Proteasomal System pathway isPartOf Proteasome - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Protein digestion and absorption - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Protein export - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Protein processing in endoplasmic reticulum - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Proteoglycans in cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Proximal tubule bicarbonate reclamation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Purine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Purine metabolism - Homo sapiens (human)* isPartOf Nucleotide Metabolism
 Purine metabolism - Homo sapiens (human)* isPartOf DNA Replication
 Purine metabolism - Homo sapiens (human)* isPartOf Homologous recombination</t>
   </si>
   <si>
-    <t xml:space="preserve">Pyrimidine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyrimidine metabolism - Homo sapiens (human) equivalentTo Pyrimidine metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyruvate metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIG-I-like receptor signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIG-I-like receptor signaling pathway - Homo sapiens (human) equivalentTo RIG-I-like Receptor Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA polymerase - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA polymerase - Homo sapiens (human)* isPartOf Eukaryotic Transcription Initiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA transport - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rap1 signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ras signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of actin cytoskeleton - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of actin cytoskeleton - Homo sapiens (human) equivalentTo Regulation of Actin Cytoskeleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of lipolysis in adipocytes - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of lipolysis in adipocytes - Homo sapiens (human)* isPartOf Lipid Metabolism Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relaxin signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renal cell carcinoma - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MET in type 1 papillary renal cell carcinoma isPartOf Renal cell carcinoma - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renin secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renin-angiotensin system - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACE Inhibitor Pathway isPartOf Renin-angiotensin system - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retinol metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retrograde endocannabinoid signaling - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retrograde endocannabinoid signaling - Homo sapiens (human)* isPartOf Cannabinoid receptor signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheumatoid arthritis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riboflavin metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ribosome - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytoplasmic Ribosomal Proteins isPartOf Ribosome - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ribosome biogenesis in eukaryotes - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNARE interactions in vesicular transport - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNARE interactions in vesicular transport - Homo sapiens (human)* isPartOf Synaptic Vesicle Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salivary secretion - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmonella infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenocompound metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenocompound metabolism - Homo sapiens (human) equivalentTo Selenium Metabolism and Selenoproteins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonergic synapse - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin Receptor 2 and ELK-SRF/GATA4 signaling isPartOf Serotonergic synapse - Homo sapiens (human)*
+    <t>Pyrimidine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism - Homo sapiens (human) equivalentTo Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>RIG-I-like receptor signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>RIG-I-like receptor signaling pathway - Homo sapiens (human) equivalentTo RIG-I-like Receptor Signaling</t>
+  </si>
+  <si>
+    <t>RNA degradation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>RNA polymerase - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>RNA polymerase - Homo sapiens (human)* isPartOf Eukaryotic Transcription Initiation</t>
+  </si>
+  <si>
+    <t>RNA transport - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Rap1 signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Ras signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Regulation of actin cytoskeleton - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Regulation of actin cytoskeleton - Homo sapiens (human) equivalentTo Regulation of Actin Cytoskeleton</t>
+  </si>
+  <si>
+    <t>Regulation of lipolysis in adipocytes - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Regulation of lipolysis in adipocytes - Homo sapiens (human)* isPartOf Lipid Metabolism Pathway</t>
+  </si>
+  <si>
+    <t>Relaxin signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Renal cell carcinoma - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t> MET in type 1 papillary renal cell carcinoma isPartOf Renal cell carcinoma - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Renin secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Renin-angiotensin system - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>ACE Inhibitor Pathway isPartOf Renin-angiotensin system - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Retinol metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Retrograde endocannabinoid signaling - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Retrograde endocannabinoid signaling - Homo sapiens (human)* isPartOf Cannabinoid receptor signaling</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Ribosome - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Cytoplasmic Ribosomal Proteins isPartOf Ribosome - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Ribosome biogenesis in eukaryotes - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>SNARE interactions in vesicular transport - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>SNARE interactions in vesicular transport - Homo sapiens (human)* isPartOf Synaptic Vesicle Pathway</t>
+  </si>
+  <si>
+    <t>Salivary secretion - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Salmonella infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism - Homo sapiens (human) equivalentTo Selenium Metabolism and Selenoproteins</t>
+  </si>
+  <si>
+    <t>Serotonergic synapse - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Serotonin Receptor 2 and ELK-SRF/GATA4 signaling isPartOf Serotonergic synapse - Homo sapiens (human)*
 Serotonin Receptor 2 and STAT3 Signaling isPartOf Serotonergic synapse - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigellosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signaling pathways regulating pluripotency of stem cells - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESC Pluripotency Pathways isPartOf Signaling pathways regulating pluripotency of stem cells - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small cell lung cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphingolipid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphingolipid metabolism - Homo sapiens (human) equivalentTo Sphingolipid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphingolipid metabolism - Homo sapiens (human)* isPartOf Sphingolipid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphingolipid signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphingolipid signaling pathway - Homo sapiens (human)* isPartOf Sphingolipid Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spliceosome - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spliceosome - Homo sapiens (human)* isPartOf mRNA Processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staphylococcus aureus infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starch and sucrose metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steroid biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steroid biosynthesis - Homo sapiens (human) equivalentTo Steroid Biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steroid hormone biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucocorticoid and Mineralcorticoid Metabolism isPartOf Steroid hormone biosynthesis - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfur metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfation Biotransformation Reaction isPartOf Sulfur metabolism - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfur relay system - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synaptic vesicle cycle - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synaptic vesicle cycle - Homo sapiens (human) equivalentTo Synaptic Vesicle Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthesis and degradation of ketone bodies - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthesis and degradation of ketone bodies - Homo sapiens (human) equivalentTo Synthesis and Degradation of Ketone Bodies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systemic lupus erythematosus - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell receptor signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-Cell antigen Receptor (TCR)  Signaling Pathway isPartOf T cell receptor signaling pathway - Homo sapiens (human)*
+    <t>Shigellosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Signaling pathways regulating pluripotency of stem cells - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>ESC Pluripotency Pathways isPartOf Signaling pathways regulating pluripotency of stem cells - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Small cell lung cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Sphingolipid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Sphingolipid metabolism - Homo sapiens (human) equivalentTo Sphingolipid Metabolism</t>
+  </si>
+  <si>
+    <t>Sphingolipid metabolism - Homo sapiens (human)* isPartOf Sphingolipid Metabolism</t>
+  </si>
+  <si>
+    <t>Sphingolipid signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Sphingolipid signaling pathway - Homo sapiens (human)* isPartOf Sphingolipid Metabolism</t>
+  </si>
+  <si>
+    <t>Spliceosome - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Spliceosome - Homo sapiens (human)* isPartOf mRNA Processing</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Steroid biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Steroid biosynthesis - Homo sapiens (human) equivalentTo Steroid Biosynthesis</t>
+  </si>
+  <si>
+    <t>Steroid hormone biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Glucocorticoid and Mineralcorticoid Metabolism isPartOf Steroid hormone biosynthesis - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Sulfation Biotransformation Reaction isPartOf Sulfur metabolism - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Sulfur relay system - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Synaptic vesicle cycle - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Synaptic vesicle cycle - Homo sapiens (human) equivalentTo Synaptic Vesicle Pathway</t>
+  </si>
+  <si>
+    <t>Synthesis and degradation of ketone bodies - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Synthesis and degradation of ketone bodies - Homo sapiens (human) equivalentTo Synthesis and Degradation of Ketone Bodies</t>
+  </si>
+  <si>
+    <t>Systemic lupus erythematosus - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>T cell receptor signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>T-Cell antigen Receptor (TCR)  Signaling Pathway isPartOf T cell receptor signaling pathway - Homo sapiens (human)*
 T-Cell Receptor and Co-stimulatory Signaling isPartOf T cell receptor signaling pathway - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">TGF-beta signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGF-beta signaling pathway - Homo sapiens (human) equivalentTo TGF-beta Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNF signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taste transduction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taurine and hypotaurine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terpenoid backbone biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th1 and Th2 cell differentiation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th17 cell differentiation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th17 cell differentiation - Homo sapiens (human)* isPartOf IL17 signaling pathway
+    <t>TGF-beta signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>TGF-beta signaling pathway - Homo sapiens (human) equivalentTo TGF-beta Signaling Pathway</t>
+  </si>
+  <si>
+    <t>TNF signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Taste transduction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Th1 and Th2 cell differentiation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Th17 cell differentiation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Th17 cell differentiation - Homo sapiens (human)* isPartOf IL17 signaling pathway
 Th17 cell differentiation - Homo sapiens (human)* isPartOf Cell Differentiation - Index</t>
   </si>
   <si>
-    <t xml:space="preserve">Thermogenesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiamine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyroid cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyroid hormone signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyroid hormone synthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyroid hormone synthesis - Homo sapiens (human) equivalentTo Thyroxine (Thyroid Hormone) Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tight junction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toll-like receptor signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toll-like receptor signaling pathway - Homo sapiens (human) equivalentTo Toll-like Receptor Signaling Pathway
+    <t>Thermogenesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Thyroid cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Thyroid hormone signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Thyroid hormone synthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Thyroid hormone synthesis - Homo sapiens (human) equivalentTo Thyroxine (Thyroid Hormone) Production</t>
+  </si>
+  <si>
+    <t>Tight junction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Toll-like receptor signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Toll-like receptor signaling pathway - Homo sapiens (human) equivalentTo Toll-like Receptor Signaling Pathway
 Toll-like receptor signaling pathway - Homo sapiens (human) equivalentTo Toll-like Receptor Signaling</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxoplasmosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcriptional misregulation in cancer - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tryptophan metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tryptophan metabolism - Homo sapiens (human) equivalentTo Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type I diabetes mellitus - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type II diabetes mellitus - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type II diabetes mellitus - Homo sapiens (human) equivalentTo Type II diabetes mellitus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyrosine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyrosine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
+    <t>Toxoplasmosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Transcriptional misregulation in cancer - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism - Homo sapiens (human) equivalentTo Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Tuberculosis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Type I diabetes mellitus - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Type II diabetes mellitus - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Type II diabetes mellitus - Homo sapiens (human) equivalentTo Type II diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
 Tyrosine metabolism - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ubiquinone and other terpenoid-quinone biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitin mediated proteolysis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitin mediated proteolysis - Homo sapiens (human)* isPartOf Parkin-Ubiquitin Proteasomal System pathway
+    <t>Ubiquinone and other terpenoid-quinone biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Ubiquitin mediated proteolysis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Ubiquitin mediated proteolysis - Homo sapiens (human)* isPartOf Parkin-Ubiquitin Proteasomal System pathway
 Ubiquitin mediated proteolysis - Homo sapiens (human)* isPartOf Proteasome Degradation</t>
   </si>
   <si>
-    <t xml:space="preserve">VEGF signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robo4 and VEGF Signaling Pathways Crosstalk isPartOf VEGF signaling pathway - Homo sapiens (human)*
+    <t>VEGF signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Robo4 and VEGF Signaling Pathways Crosstalk isPartOf VEGF signaling pathway - Homo sapiens (human)*
 VEGF signaling pathway - Homo sapiens (human)* isPartOf VEGFA-VEGFR2 Signaling Pathway
 VEGFA-VEGFR2 Signaling Pathway isPartOf VEGF signaling pathway - Homo sapiens (human)*</t>
   </si>
   <si>
-    <t xml:space="preserve">Valine, leucine and isoleucine biosynthesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valine, leucine and isoleucine biosynthesis - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valine, leucine and isoleucine degradation - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valine, leucine and isoleucine degradation - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vascular smooth muscle contraction - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelin Pathways isPartOf Vascular smooth muscle contraction - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasopressin-regulated water reabsorption - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vibrio cholerae infection - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viral carcinogenesis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viral myocarditis - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin B6 metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin digestion and absorption - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin B12 Metabolism isPartOf Vitamin digestion and absorption - Homo sapiens (human)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wnt signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wnt signaling pathway - Homo sapiens (human) equivalentTo Wnt Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wnt Signaling Pathway and Pluripotency isPartOf Wnt signaling pathway - Homo sapiens (human)*
+    <t>Valine, leucine and isoleucine biosynthesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine biosynthesis - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
+  </si>
+  <si>
+    <t>Vascular smooth muscle contraction - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Endothelin Pathways isPartOf Vascular smooth muscle contraction - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Vasopressin-regulated water reabsorption - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae infection - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Viral carcinogenesis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Viral myocarditis - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Vitamin B6 metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Vitamin digestion and absorption - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Vitamin B12 Metabolism isPartOf Vitamin digestion and absorption - Homo sapiens (human)*</t>
+  </si>
+  <si>
+    <t>Wnt signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>Wnt signaling pathway - Homo sapiens (human) equivalentTo Wnt Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Wnt Signaling Pathway and Pluripotency isPartOf Wnt signaling pathway - Homo sapiens (human)*
 </t>
   </si>
   <si>
-    <t xml:space="preserve">alpha-Linolenic acid metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-Alanine metabolism - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-Alanine metabolism - Homo sapiens (human)* isPartOf Urea cycle and metabolism of amino groups
+    <t>alpha-Linolenic acid metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism - Homo sapiens (human)* isPartOf Urea cycle and metabolism of amino groups
 beta-Alanine metabolism - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis
 beta-Alanine metabolism - Homo sapiens (human)* isPartOf Alanine and aspartate metabolism
 beta-Alanine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">cAMP signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cGMP-PKG signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA surveillance pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mTOR signaling pathway - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mTOR signaling pathway - Homo sapiens (human) equivalentTo Target Of Rapamycin (TOR) Signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mTOR signaling pathway - Homo sapiens (human)* isPartOf PI3K-Akt Signaling Pathway
+    <t>cAMP signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>cGMP-PKG signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>mRNA surveillance pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>mTOR signaling pathway - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>mTOR signaling pathway - Homo sapiens (human) equivalentTo Target Of Rapamycin (TOR) Signaling</t>
+  </si>
+  <si>
+    <t>mTOR signaling pathway - Homo sapiens (human)* isPartOf PI3K-Akt Signaling Pathway
 mTOR signaling pathway - Homo sapiens (human)* isPartOf PI3K-AKT-mTOR signaling pathway and therapeutic opportunities
 mTOR signaling pathway - Homo sapiens (human)* isPartOf Focal Adhesion-PI3K-Akt-mTOR-signaling pathway</t>
   </si>
   <si>
-    <t xml:space="preserve">p53 signaling pathway - Homo sapiens (human)</t>
+    <t>p53 signaling pathway - Homo sapiens (human)</t>
   </si>
 </sst>
 </file>
@@ -1619,14 +1616,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1648,13 +1645,13 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1750,16 +1747,16 @@
   </sheetPr>
   <dimension ref="A1:C326"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B198" activeCellId="0" sqref="B198"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="109.071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.5663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,2380 +1962,2378 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="C180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="C208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="C210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="C214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="C215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="C233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="C235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="C245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="C253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="C278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="C282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="C283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="C286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="C297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="C299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="C302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="C305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="C319" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="C325" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="5"/>

--- a/mappings/kegg_wikipathways.xlsx
+++ b/mappings/kegg_wikipathways.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarinllao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -228,10 +238,6 @@
     <t>Biosynthesis of unsaturated fatty acids - Homo sapiens (human)</t>
   </si>
   <si>
-    <t>Fatty Acid Biosynthesis isPartOf Biosynthesis of unsaturated fatty acids - Homo sapiens (human)*
-Biosynthesis of unsaturated fatty acids - Homo sapiens (human)* isPartOf Fatty Acid Biosynthesis</t>
-  </si>
-  <si>
     <t>Biotin metabolism - Homo sapiens (human)</t>
   </si>
   <si>
@@ -250,8 +256,7 @@
     <t>Caffeine metabolism - Homo sapiens (human)</t>
   </si>
   <si>
-    <t>Caffeine metabolism - Homo sapiens (human)* isPartOf Caffeine and Theobromine metabolism
-</t>
+    <t>Caffeine metabolism - Homo sapiens (human)* isPartOf Caffeine and Theobromine metabolism</t>
   </si>
   <si>
     <t>Calcium signaling pathway - Homo sapiens (human)</t>
@@ -306,8 +311,7 @@
     <t>Cholesterol metabolism - Homo sapiens (human)</t>
   </si>
   <si>
-    <t>Cholesterol Biosynthesis isPartOf Cholesterol metabolism - Homo sapiens (human)*
-</t>
+    <t>Cholesterol Biosynthesis isPartOf Cholesterol metabolism - Homo sapiens (human)*</t>
   </si>
   <si>
     <t>Choline metabolism in cancer - Homo sapiens (human)</t>
@@ -402,8 +406,7 @@
     <t>Dopaminergic synapse - Homo sapiens (human)</t>
   </si>
   <si>
-    <t>Nicotine Activity on Dopaminergic Neurons isPartOf Dopaminergic synapse - Homo sapiens (human)*
-</t>
+    <t>Nicotine Activity on Dopaminergic Neurons isPartOf Dopaminergic synapse - Homo sapiens (human)*</t>
   </si>
   <si>
     <t>Drug metabolism - cytochrome P450 - Homo sapiens (human)</t>
@@ -542,8 +545,7 @@
     <t>GABAergic synapse - Homo sapiens (human)</t>
   </si>
   <si>
-    <t>GABAergic synapse - Homo sapiens (human)* isPartOf GABA receptor Signaling
-</t>
+    <t>GABAergic synapse - Homo sapiens (human)* isPartOf GABA receptor Signaling</t>
   </si>
   <si>
     <t>Galactose metabolism - Homo sapiens (human)</t>
@@ -679,8 +681,7 @@
     <t>Hepatocellular carcinoma - Homo sapiens (human)</t>
   </si>
   <si>
-    <t>Hepatocellular carcinoma - Homo sapiens (human)* isPartOf Hepatitis C and Hepatocellular Carcinoma
-</t>
+    <t>Hepatocellular carcinoma - Homo sapiens (human)* isPartOf Hepatitis C and Hepatocellular Carcinoma</t>
   </si>
   <si>
     <t>Herpes simplex infection - Homo sapiens (human)</t>
@@ -748,8 +749,7 @@
   </si>
   <si>
     <t>Insulin signaling pathway - Homo sapiens (human)* isPartOf Insulin signalling in human adipocytes (normal condition)
-Insulin signaling pathway - Homo sapiens (human)* isPartOf Glucose Homeostasis
-</t>
+Insulin signaling pathway - Homo sapiens (human)* isPartOf Glucose Homeostasis</t>
   </si>
   <si>
     <t>Intestinal immune network for IgA production - Homo sapiens (human)</t>
@@ -1143,8 +1143,7 @@
     <t>Phenylalanine, tyrosine and tryptophan biosynthesis - Homo sapiens (human)</t>
   </si>
   <si>
-    <t>Phenylalanine, tyrosine and tryptophan biosynthesis - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis
-</t>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis</t>
   </si>
   <si>
     <t>Phosphatidylinositol signaling system - Homo sapiens (human)</t>
@@ -1278,7 +1277,7 @@
     <t>Renal cell carcinoma - Homo sapiens (human)</t>
   </si>
   <si>
-    <t> MET in type 1 papillary renal cell carcinoma isPartOf Renal cell carcinoma - Homo sapiens (human)*</t>
+    <t>MET in type 1 papillary renal cell carcinoma isPartOf Renal cell carcinoma - Homo sapiens (human)*</t>
   </si>
   <si>
     <t>Renin secretion - Homo sapiens (human)</t>
@@ -1505,8 +1504,7 @@
   </si>
   <si>
     <t>Tyrosine metabolism - Homo sapiens (human)* isPartOf Amino Acid metabolism
-Tyrosine metabolism - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis
-</t>
+Tyrosine metabolism - Homo sapiens (human)* isPartOf Biogenic Amine Synthesis</t>
   </si>
   <si>
     <t>Ubiquinone and other terpenoid-quinone biosynthesis - Homo sapiens (human)</t>
@@ -1572,8 +1570,7 @@
     <t>Wnt signaling pathway - Homo sapiens (human) equivalentTo Wnt Signaling Pathway</t>
   </si>
   <si>
-    <t>Wnt Signaling Pathway and Pluripotency isPartOf Wnt signaling pathway - Homo sapiens (human)*
-</t>
+    <t>Wnt Signaling Pathway and Pluripotency isPartOf Wnt signaling pathway - Homo sapiens (human)*</t>
   </si>
   <si>
     <t>alpha-Linolenic acid metabolism - Homo sapiens (human)</t>
@@ -1610,15 +1607,15 @@
   <si>
     <t>p53 signaling pathway - Homo sapiens (human)</t>
   </si>
+  <si>
+    <t>Biosynthesis of unsaturated fatty acids - Homo sapiens (human)* isPartOf Fatty Acid Biosynthesis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1627,22 +1624,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -1670,7 +1652,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1678,88 +1660,310 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C326"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1779,21 +1983,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1802,21 +2006,21 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1825,21 +2029,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="406" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +2052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1857,7 +2061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="210" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1866,14 +2070,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1882,7 +2086,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1891,28 +2095,28 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1921,7 +2125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="210" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1930,28 +2134,28 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="378" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1962,7 +2166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1971,14 +2175,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="364" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
@@ -1987,7 +2191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="336" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1996,7 +2200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="280" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2005,49 +2209,49 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -2056,21 +2260,21 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
@@ -2079,14 +2283,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
@@ -2095,7 +2299,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="378" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>63</v>
       </c>
@@ -2104,2247 +2308,2242 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="238" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="2" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="210" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="2" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="196" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="378" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="350" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="409" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="409" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" ht="409" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" ht="294" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" ht="210" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" ht="252" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" ht="409" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="350" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="392" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:3" ht="210" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="224" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" ht="322" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:3" ht="336" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:3" ht="294" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C169" s="2" t="s">
+    </row>
+    <row r="170" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A183" s="2" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="294" x14ac:dyDescent="0.15">
+      <c r="A193" s="2" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C196" s="2"/>
-    </row>
-    <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" ht="322" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" ht="280" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A202" s="2" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" ht="224" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A204" s="2" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:3" ht="196" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A213" s="2" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="1:3" ht="392" x14ac:dyDescent="0.15">
+      <c r="A216" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A217" s="2" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A218" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="2" t="s">
+    </row>
+    <row r="219" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:3" ht="294" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+      <c r="A223" s="2" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A224" s="2" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
     </row>
-    <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A234" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C233" s="2"/>
-    </row>
-    <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A236" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C238" s="2" t="s">
+    </row>
+    <row r="239" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A239" s="2" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
-    <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
     </row>
-    <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" ht="406" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A245" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A246" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A248" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
-    <row r="249" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A250" s="2" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
-    <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
     </row>
-    <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
-    <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A254" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C253" s="2"/>
-    </row>
-    <row r="254" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A255" s="2" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
     </row>
-    <row r="256" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A257" s="2" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
-    <row r="258" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A259" s="2" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
-    <row r="260" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A261" s="2" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
-    <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
     </row>
-    <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A264" s="2" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
-    <row r="265" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A266" s="2" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
-    <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" spans="1:3" ht="364" x14ac:dyDescent="0.15">
+      <c r="A269" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C268" s="2"/>
-    </row>
-    <row r="269" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A270" s="2" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
     </row>
-    <row r="271" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" ht="210" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A272" s="2" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
     </row>
-    <row r="273" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C273" s="2" t="s">
+    </row>
+    <row r="274" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A274" s="2" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+      <c r="A275" s="2" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A276" s="2" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
     </row>
-    <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
-    <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="C278" s="2"/>
+    </row>
+    <row r="279" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A279" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C278" s="2"/>
-    </row>
-    <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+      <c r="A280" s="2" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A281" s="2" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
     </row>
-    <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="C282" s="2"/>
+    </row>
+    <row r="283" spans="1:3" ht="238" x14ac:dyDescent="0.15">
+      <c r="A283" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C282" s="2"/>
-    </row>
-    <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="s">
+      <c r="B283" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="C283" s="2"/>
+    </row>
+    <row r="284" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A284" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C283" s="2"/>
-    </row>
-    <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
-    <row r="285" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" ht="392" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+      <c r="A286" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="s">
+      <c r="B286" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="C286" s="2"/>
+    </row>
+    <row r="287" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A287" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C286" s="2"/>
-    </row>
-    <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
     </row>
-    <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
-    <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
     </row>
-    <row r="292" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" ht="294" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A293" s="2" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
-    <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
     </row>
-    <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
     </row>
-    <row r="297" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:3" ht="210" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="C297" s="2"/>
+    </row>
+    <row r="298" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A298" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C297" s="2"/>
-    </row>
-    <row r="298" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
     </row>
-    <row r="299" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:3" ht="350" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A300" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C299" s="2"/>
-    </row>
-    <row r="300" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
     </row>
-    <row r="301" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
-    <row r="302" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="C302" s="2"/>
+    </row>
+    <row r="303" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A303" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C302" s="2"/>
-    </row>
-    <row r="303" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
     </row>
-    <row r="304" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
-    <row r="305" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="C305" s="2"/>
+    </row>
+    <row r="306" spans="1:3" ht="266" x14ac:dyDescent="0.15">
+      <c r="A306" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C305" s="2"/>
-    </row>
-    <row r="306" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+      <c r="A307" s="2" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
-    <row r="308" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:3" ht="336" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="409" x14ac:dyDescent="0.15">
+      <c r="A309" s="2" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+      <c r="A310" s="2" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+      <c r="A311" s="2" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A312" s="2" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+      <c r="A313" s="2" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
     </row>
-    <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
     </row>
-    <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
     </row>
-    <row r="316" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
     </row>
-    <row r="317" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
     </row>
-    <row r="318" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A319" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="319" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
+      <c r="B319" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="C319" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C319" s="2" t="s">
+    </row>
+    <row r="320" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A320" s="2" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
     </row>
-    <row r="321" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A322" s="2" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
     </row>
-    <row r="323" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
     </row>
-    <row r="324" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
-    <row r="325" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:3" ht="409" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="C325" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C325" s="2" t="s">
+    </row>
+    <row r="326" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A326" s="2" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/mappings/kegg_wikipathways.xlsx
+++ b/mappings/kegg_wikipathways.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="991"/>
+    <workbookView xWindow="2340" yWindow="3300" windowWidth="28800" windowHeight="16240" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/mappings/kegg_wikipathways.xlsx
+++ b/mappings/kegg_wikipathways.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="474">
   <si>
     <t xml:space="preserve">KEGG References</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alzheimer disease - Homo sapiens (human)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alzheimer's disease - Homo sapiens (human) equivalentTo Alzheimers Disease</t>
   </si>
   <si>
     <t xml:space="preserve">Amino sugar and nucleotide sugar metabolism - Homo sapiens (human)</t>
@@ -1738,7 +1735,7 @@
   <dimension ref="A1:C326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1869,2458 +1866,2458 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="378" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="364" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="336" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="280" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="378" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="238" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="378" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="252" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="392" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="322" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="336" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="322" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="280" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="392" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="C233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="C235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="406" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="C247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="C253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="C268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="364" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="C282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="238" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="C283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="392" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="C286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="C299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="C302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="C305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="266" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="336" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="C319" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="C325" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="5"/>

--- a/mappings/kegg_wikipathways.xlsx
+++ b/mappings/kegg_wikipathways.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
   <si>
     <t xml:space="preserve">KEGG References</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alzheimer disease - Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alzheimer disease - Homo sapiens (human) equivalentTo Alzheimers Disease</t>
   </si>
   <si>
     <t xml:space="preserve">Amino sugar and nucleotide sugar metabolism - Homo sapiens (human)</t>
@@ -1866,2458 +1869,2458 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="378" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="364" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="336" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="280" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="378" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="238" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="378" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="252" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="392" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="322" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="336" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="322" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="280" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="392" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="406" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="364" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="238" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="392" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="350" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="154" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="266" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="336" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="5"/>
